--- a/Photos/Photos.xlsx
+++ b/Photos/Photos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
   <si>
     <t>2017.05.15-SLa</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>Consultant</t>
+  </si>
+  <si>
+    <t>Gatewood Hills Water Pump Station</t>
   </si>
 </sst>
 </file>
@@ -859,13 +862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +877,7 @@
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -897,38 +900,38 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>43017</v>
+        <v>43021</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E2,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E2" s="12">
-        <v>20171009</v>
+        <v>20171013</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>42989</v>
+        <v>43017</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D3" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E3,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>31</v>
+      <c r="E3" s="12">
+        <v>20171009</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -936,40 +939,40 @@
         <v>42989</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E4,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E4" s="12">
-        <v>20170911</v>
+      <c r="E4" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>42955</v>
+        <v>42989</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E5,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E5" s="12">
-        <v>20170808</v>
+        <v>20170911</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>42954</v>
+        <v>42955</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>30</v>
@@ -982,30 +985,30 @@
         <v>Go</v>
       </c>
       <c r="E6" s="12">
-        <v>20170807</v>
+        <v>20170808</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>42948</v>
+        <v>42954</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E7,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E7" s="12">
-        <v>20170801</v>
+        <v>20170807</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>42947</v>
+        <v>42948</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>30</v>
@@ -1018,95 +1021,95 @@
         <v>Go</v>
       </c>
       <c r="E8" s="12">
-        <v>20170731</v>
+        <v>20170801</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>42946</v>
+        <v>42947</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="D9" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E9,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>3</v>
+      <c r="E9" s="12">
+        <v>20170731</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>42944</v>
+        <v>42946</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E10,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E10" s="12">
-        <v>20170728</v>
+      <c r="E10" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>42940</v>
+        <v>42944</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E11,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E11" s="12">
-        <v>20170724</v>
+        <v>20170728</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>42936</v>
+        <v>42940</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D12" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E12,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E12" s="12">
-        <v>20170720</v>
+        <v>20170724</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>42935</v>
+        <v>42936</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D13" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E13,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>86</v>
+      <c r="E13" s="12">
+        <v>20170720</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1117,14 +1120,14 @@
         <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E14,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1132,112 +1135,112 @@
         <v>42935</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E15,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E15" s="12">
-        <v>20170719</v>
+      <c r="E15" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>42934</v>
+        <v>42935</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D16" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E16,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E16" s="12">
-        <v>20170718</v>
+        <v>20170719</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>42933</v>
+        <v>42934</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E17,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E17" s="12">
-        <v>20170717</v>
+        <v>20170718</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>42928</v>
+        <v>42933</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D18" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E18,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E18" s="12">
-        <v>20170712</v>
+        <v>20170717</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>42926</v>
+        <v>42928</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D19" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E19,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E19" s="12">
-        <v>20170710</v>
+        <v>20170712</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>42915</v>
+        <v>42926</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="D20" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E20,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>38</v>
+      <c r="E20" s="12">
+        <v>20170710</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>42914</v>
+        <v>42915</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>39</v>
@@ -1250,30 +1253,30 @@
         <v>Go</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>42912</v>
+        <v>42914</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D22" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E22,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E22" s="12">
-        <v>20170626</v>
+      <c r="E22" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>42907</v>
+        <v>42912</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>30</v>
@@ -1286,12 +1289,12 @@
         <v>Go</v>
       </c>
       <c r="E23" s="12">
-        <v>20170621</v>
+        <v>20170626</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>42906</v>
+        <v>42907</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>30</v>
@@ -1304,48 +1307,48 @@
         <v>Go</v>
       </c>
       <c r="E24" s="12">
-        <v>20170620</v>
+        <v>20170621</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>42899</v>
+        <v>42906</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D25" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E25,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E25" s="12">
-        <v>20170613</v>
+        <v>20170620</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>42894</v>
+        <v>42899</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D26" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E26,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E26" s="12">
-        <v>20170608</v>
+        <v>20170613</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>42892</v>
+        <v>42894</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>30</v>
@@ -1358,12 +1361,12 @@
         <v>Go</v>
       </c>
       <c r="E27" s="12">
-        <v>20170606</v>
+        <v>20170608</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>30</v>
@@ -1376,172 +1379,172 @@
         <v>Go</v>
       </c>
       <c r="E28" s="12">
-        <v>20170605</v>
+        <v>20170606</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>42870</v>
+        <v>42891</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D29" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E29,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>0</v>
+      <c r="E29" s="12">
+        <v>20170605</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>42866</v>
+        <v>42870</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D30" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E30,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>42865</v>
+        <v>42866</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E31,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>42863</v>
+        <v>42865</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D32" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E32,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E32" s="12">
-        <v>20170508</v>
+      <c r="E32" s="12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>42859</v>
+        <v>42863</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D33" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E33,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>28</v>
+      <c r="E33" s="12">
+        <v>20170508</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>42858</v>
+        <v>42859</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D34" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E34,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>42856</v>
+        <v>42858</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D35" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E35,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>42851</v>
+        <v>42856</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D36" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E36,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>42849</v>
+        <v>42851</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D37" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E37,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>42845</v>
+        <v>42849</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>52</v>
@@ -1554,12 +1557,12 @@
         <v>Go</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>42843</v>
+        <v>42845</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>52</v>
@@ -1572,102 +1575,102 @@
         <v>Go</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>42828</v>
+        <v>42843</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D40" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E40,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>42802</v>
+        <v>42828</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E41,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>42795</v>
+        <v>42802</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D42" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E42,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>42787</v>
+        <v>42795</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D43" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E43,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>42774</v>
+        <v>42787</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E44,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
-        <v>42772</v>
+        <v>42774</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>52</v>
@@ -1680,97 +1683,97 @@
         <v>Go</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
-        <v>42674</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>54</v>
+        <v>42772</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="D46" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E46,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
-        <v>42614</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>71</v>
+        <v>42674</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="D47" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E47,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E47" s="19">
-        <v>20160901</v>
+      <c r="E47" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D48" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E48,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>55</v>
+      <c r="E48" s="19">
+        <v>20160901</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
-        <v>42542</v>
+        <v>42552</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D49" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E49,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
-        <v>42506</v>
+        <v>42542</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D50" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E50,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1778,7 +1781,7 @@
         <v>42506</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>33</v>
@@ -1788,15 +1791,15 @@
         <v>Go</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
-        <v>42504</v>
+        <v>42506</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>33</v>
@@ -1806,15 +1809,15 @@
         <v>Go</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
-        <v>42503</v>
+        <v>42504</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>33</v>
@@ -1824,25 +1827,25 @@
         <v>Go</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
-        <v>42493</v>
+        <v>42503</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D54" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E54,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,86 +1856,86 @@
         <v>26</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E55,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
-        <v>42490</v>
+        <v>42493</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D56" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E56,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
-        <v>42453</v>
+        <v>42490</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D57" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E57,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E57" s="19">
-        <v>20160324</v>
+      <c r="E57" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
-        <v>42452</v>
+        <v>42453</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D58" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E58,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E58" s="19">
-        <v>20160323</v>
+        <v>20160324</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
-        <v>42390</v>
+        <v>42452</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D59" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E59,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E59" s="19">
-        <v>20160121</v>
+        <v>20160323</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1940,10 +1943,10 @@
         <v>42390</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D60" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E60,"Go")</f>
@@ -1955,20 +1958,20 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
-        <v>42370</v>
+        <v>42390</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D61" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E61,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E61" s="19" t="s">
-        <v>45</v>
+      <c r="E61" s="19">
+        <v>20160121</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,55 +1982,55 @@
         <v>26</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E62,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
-        <v>42354</v>
+        <v>42370</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D63" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E63,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E63" s="19">
-        <v>20151216</v>
+      <c r="E63" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
-        <v>42229</v>
+        <v>42354</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D64" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E64,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E64" s="19">
-        <v>20150813</v>
+        <v>20151216</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
-        <v>42227</v>
+        <v>42229</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>30</v>
@@ -2040,25 +2043,25 @@
         <v>Go</v>
       </c>
       <c r="E65" s="19">
-        <v>20150811</v>
+        <v>20150813</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
-        <v>41711</v>
+        <v>42227</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D66" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E66,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E66" s="19" t="s">
-        <v>59</v>
+      <c r="E66" s="19">
+        <v>20150811</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2076,12 +2079,12 @@
         <v>Go</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>30</v>
@@ -2094,30 +2097,30 @@
         <v>Go</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
-        <v>40928</v>
+        <v>41710</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D69" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E69,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E69" s="19">
-        <v>20120120</v>
+      <c r="E69" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
-        <v>40925</v>
+        <v>40928</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>74</v>
@@ -2130,12 +2133,12 @@
         <v>Go</v>
       </c>
       <c r="E70" s="19">
-        <v>20120117</v>
+        <v>20120120</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
-        <v>40919</v>
+        <v>40925</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>74</v>
@@ -2148,30 +2151,48 @@
         <v>Go</v>
       </c>
       <c r="E71" s="19">
+        <v>20120117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
+        <v>40919</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E72,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E72" s="19">
         <v>20120111</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
         <v>40647</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="14" t="s">
+      <c r="B73" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D72" s="15" t="str">
-        <f>HYPERLINK(Parameters!$B$1&amp;E72,"Go")</f>
-        <v>Go</v>
-      </c>
-      <c r="E72" s="16" t="s">
+      <c r="D73" s="15" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E73,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
-    <sortState ref="A2:E72">
+    <sortState ref="A2:E73">
       <sortCondition descending="1" ref="A1"/>
     </sortState>
   </autoFilter>

--- a/Photos/Photos.xlsx
+++ b/Photos/Photos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>2017.05.15-SLa</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Programmatic Water Transmission Pipeline Condition Assessment, SaharaSystem I, Recon</t>
   </si>
   <si>
-    <t>Programmatic Water Transmission Pipeline Condition Assessment, SaharaSystem I, Post Arrieta Work Inspection</t>
-  </si>
-  <si>
     <t>Programmatic Water Transmission Pipeline Condition Assessment, Leak</t>
   </si>
   <si>
@@ -301,6 +298,12 @@
   </si>
   <si>
     <t>Gatewood Hills Water Pump Station</t>
+  </si>
+  <si>
+    <t>Programmatic Water Transmission Pipeline Condition Assessment, Sahara System I, Post Arrieta Work Inspection</t>
+  </si>
+  <si>
+    <t>Pipe break in Little Italy.</t>
   </si>
 </sst>
 </file>
@@ -862,20 +865,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="102.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
@@ -892,7 +895,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -906,7 +909,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E2,"Go")</f>
@@ -918,38 +921,38 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>43017</v>
+        <v>43019</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D3" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E3,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E3" s="12">
-        <v>20171009</v>
+        <v>20171011</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>42989</v>
+        <v>43017</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E4,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>31</v>
+      <c r="E4" s="12">
+        <v>20171009</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,40 +960,40 @@
         <v>42989</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E5,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E5" s="12">
-        <v>20170911</v>
+      <c r="E5" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>42955</v>
+        <v>42989</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E6,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E6" s="12">
-        <v>20170808</v>
+        <v>20170911</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>42954</v>
+        <v>42955</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
@@ -1003,30 +1006,30 @@
         <v>Go</v>
       </c>
       <c r="E7" s="12">
-        <v>20170807</v>
+        <v>20170808</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>42948</v>
+        <v>42954</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E8,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E8" s="12">
-        <v>20170801</v>
+        <v>20170807</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>42947</v>
+        <v>42948</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
@@ -1039,95 +1042,97 @@
         <v>Go</v>
       </c>
       <c r="E9" s="12">
-        <v>20170731</v>
+        <v>20170801</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>42946</v>
+        <v>42947</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="D10" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E10,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>3</v>
+      <c r="E10" s="12">
+        <v>20170731</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>42944</v>
+        <v>42946</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D11" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E11,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E11" s="12">
-        <v>20170728</v>
+      <c r="E11" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>42940</v>
+        <v>42944</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E12,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E12" s="12">
-        <v>20170724</v>
+        <v>20170728</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>42936</v>
+        <v>42940</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D13" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E13,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E13" s="12">
-        <v>20170720</v>
+        <v>20170724</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>42935</v>
+        <v>42936</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D14" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E14,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>86</v>
+      <c r="E14" s="12">
+        <v>20170720</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,14 +1143,14 @@
         <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E15,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,40 +1158,40 @@
         <v>42935</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D16" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E16,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E16" s="12">
-        <v>20170719</v>
+      <c r="E16" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>42934</v>
+        <v>42935</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E17,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E17" s="12">
-        <v>20170718</v>
+        <v>20170719</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>42933</v>
+        <v>42934</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>30</v>
@@ -1199,66 +1204,66 @@
         <v>Go</v>
       </c>
       <c r="E18" s="12">
-        <v>20170717</v>
+        <v>20170718</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>42928</v>
+        <v>42933</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D19" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E19,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E19" s="12">
-        <v>20170712</v>
+        <v>20170717</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>42926</v>
+        <v>42928</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D20" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E20,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E20" s="12">
-        <v>20170710</v>
+        <v>20170712</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>42915</v>
+        <v>42926</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D21" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E21,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>38</v>
+      <c r="E21" s="12">
+        <v>20170710</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>42914</v>
+        <v>42915</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>39</v>
@@ -1271,30 +1276,30 @@
         <v>Go</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>42912</v>
+        <v>42914</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D23" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E23,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E23" s="12">
-        <v>20170626</v>
+      <c r="E23" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>42907</v>
+        <v>42912</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>30</v>
@@ -1307,12 +1312,12 @@
         <v>Go</v>
       </c>
       <c r="E24" s="12">
-        <v>20170621</v>
+        <v>20170626</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>42906</v>
+        <v>42907</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>30</v>
@@ -1325,48 +1330,48 @@
         <v>Go</v>
       </c>
       <c r="E25" s="12">
-        <v>20170620</v>
+        <v>20170621</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>42899</v>
+        <v>42906</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D26" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E26,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E26" s="12">
-        <v>20170613</v>
+        <v>20170620</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>42894</v>
+        <v>42899</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D27" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E27,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E27" s="12">
-        <v>20170608</v>
+        <v>20170613</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>42892</v>
+        <v>42894</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>30</v>
@@ -1379,12 +1384,12 @@
         <v>Go</v>
       </c>
       <c r="E28" s="12">
-        <v>20170606</v>
+        <v>20170608</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>30</v>
@@ -1397,172 +1402,172 @@
         <v>Go</v>
       </c>
       <c r="E29" s="12">
-        <v>20170605</v>
+        <v>20170606</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>42870</v>
+        <v>42891</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D30" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E30,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>0</v>
+      <c r="E30" s="12">
+        <v>20170605</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>42866</v>
+        <v>42870</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D31" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E31,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>42865</v>
+        <v>42866</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E32,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>42863</v>
+        <v>42865</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D33" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E33,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E33" s="12">
-        <v>20170508</v>
+      <c r="E33" s="12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>42859</v>
+        <v>42863</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D34" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E34,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>28</v>
+      <c r="E34" s="12">
+        <v>20170508</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>42858</v>
+        <v>42859</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D35" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E35,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>42856</v>
+        <v>42858</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D36" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E36,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>42851</v>
+        <v>42856</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D37" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E37,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>42849</v>
+        <v>42851</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D38" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E38,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>42845</v>
+        <v>42849</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>52</v>
@@ -1575,12 +1580,12 @@
         <v>Go</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>42843</v>
+        <v>42845</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>52</v>
@@ -1593,104 +1598,104 @@
         <v>Go</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>42828</v>
+        <v>42843</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D41" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E41,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>42802</v>
+        <v>42828</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E42,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>42795</v>
+        <v>42802</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D43" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E43,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>42787</v>
+        <v>42795</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D44" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E44,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
-        <v>42774</v>
+      <c r="A45" s="11">
+        <v>42787</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>9</v>
+      <c r="C45" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D45" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E45,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>15</v>
+      <c r="E45" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
-        <v>42772</v>
-      </c>
-      <c r="B46" s="18" t="s">
+        <v>42774</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="18" t="s">
@@ -1701,97 +1706,97 @@
         <v>Go</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
-        <v>42674</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>54</v>
+        <v>42772</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="D47" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E47,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
-        <v>42614</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>71</v>
+        <v>42674</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="D48" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E48,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E48" s="19">
-        <v>20160901</v>
+      <c r="E48" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D49" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E49,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E49" s="19" t="s">
-        <v>55</v>
+      <c r="E49" s="19">
+        <v>20160901</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
-        <v>42542</v>
+        <v>42552</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D50" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E50,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
-        <v>42506</v>
+        <v>42542</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D51" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E51,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1799,9 +1804,9 @@
         <v>42506</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="6" t="str">
@@ -1809,15 +1814,15 @@
         <v>Go</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
-        <v>42504</v>
+        <v>42506</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>33</v>
@@ -1827,15 +1832,15 @@
         <v>Go</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
-        <v>42503</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>26</v>
+        <v>42504</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>33</v>
@@ -1845,25 +1850,25 @@
         <v>Go</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
-        <v>42493</v>
+        <v>42503</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D55" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E55,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,86 +1879,86 @@
         <v>26</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D56" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E56,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
-        <v>42490</v>
+        <v>42493</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E57,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
-        <v>42453</v>
+        <v>42490</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D58" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E58,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E58" s="19">
-        <v>20160324</v>
+      <c r="E58" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
-        <v>42452</v>
+        <v>42453</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>69</v>
+      <c r="C59" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D59" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E59,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E59" s="19">
-        <v>20160323</v>
+        <v>20160324</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
-        <v>42390</v>
+        <v>42452</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D60" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E60,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E60" s="19">
-        <v>20160121</v>
+        <v>20160323</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1961,10 +1966,10 @@
         <v>42390</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="D61" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E61,"Go")</f>
@@ -1976,20 +1981,20 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
-        <v>42370</v>
+        <v>42390</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D62" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E62,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E62" s="19" t="s">
-        <v>45</v>
+      <c r="E62" s="19">
+        <v>20160121</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2000,55 +2005,55 @@
         <v>26</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E63,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
-        <v>42354</v>
+        <v>42370</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D64" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E64,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E64" s="19">
-        <v>20151216</v>
+      <c r="E64" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
-        <v>42229</v>
+        <v>42354</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D65" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E65,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E65" s="19">
-        <v>20150813</v>
+        <v>20151216</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
-        <v>42227</v>
+        <v>42229</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>30</v>
@@ -2061,25 +2066,25 @@
         <v>Go</v>
       </c>
       <c r="E66" s="19">
-        <v>20150811</v>
+        <v>20150813</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
-        <v>41711</v>
+        <v>42227</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D67" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E67,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E67" s="19" t="s">
-        <v>59</v>
+      <c r="E67" s="19">
+        <v>20150811</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,12 +2102,12 @@
         <v>Go</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>30</v>
@@ -2115,30 +2120,30 @@
         <v>Go</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
-        <v>40928</v>
+        <v>41710</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D70" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E70,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E70" s="19">
-        <v>20120120</v>
+      <c r="E70" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
-        <v>40925</v>
+        <v>40928</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>74</v>
@@ -2151,17 +2156,17 @@
         <v>Go</v>
       </c>
       <c r="E71" s="19">
-        <v>20120117</v>
+        <v>20120120</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
-        <v>40919</v>
-      </c>
-      <c r="B72" s="18" t="s">
+        <v>40925</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D72" s="6" t="str">
@@ -2169,24 +2174,42 @@
         <v>Go</v>
       </c>
       <c r="E72" s="19">
+        <v>20120117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
+        <v>40919</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E73,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E73" s="19">
         <v>20120111</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
         <v>40647</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="14" t="s">
+      <c r="B74" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D73" s="15" t="str">
-        <f>HYPERLINK(Parameters!$B$1&amp;E73,"Go")</f>
-        <v>Go</v>
-      </c>
-      <c r="E73" s="16" t="s">
+      <c r="D74" s="15" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E74,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Photos/Photos.xlsx
+++ b/Photos/Photos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="96">
   <si>
     <t>2017.05.15-SLa</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Pipe break in Little Italy.</t>
+  </si>
+  <si>
+    <t>Sewer Pump Station No. 53 Condition Assessment and Pump Efficiency Testing</t>
   </si>
 </sst>
 </file>
@@ -865,13 +868,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +883,7 @@
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="102.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -903,43 +906,43 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>43021</v>
+        <v>43041</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E2,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E2" s="12">
-        <v>20171013</v>
+        <v>20171102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>43019</v>
+        <v>43021</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E3,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E3" s="12">
-        <v>20171011</v>
+        <v>20171013</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>43017</v>
+        <v>43019</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>30</v>
@@ -952,25 +955,25 @@
         <v>Go</v>
       </c>
       <c r="E4" s="12">
-        <v>20171009</v>
+        <v>20171011</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>42989</v>
+        <v>43017</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E5,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>31</v>
+      <c r="E5" s="12">
+        <v>20171009</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,40 +981,40 @@
         <v>42989</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E6,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E6" s="12">
-        <v>20170911</v>
+      <c r="E6" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>42955</v>
+        <v>42989</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E7,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E7" s="12">
-        <v>20170808</v>
+        <v>20170911</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>42954</v>
+        <v>42955</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>30</v>
@@ -1024,30 +1027,30 @@
         <v>Go</v>
       </c>
       <c r="E8" s="12">
-        <v>20170807</v>
+        <v>20170808</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>42948</v>
+        <v>42954</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E9,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E9" s="12">
-        <v>20170801</v>
+        <v>20170807</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>42947</v>
+        <v>42948</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>30</v>
@@ -1060,97 +1063,97 @@
         <v>Go</v>
       </c>
       <c r="E10" s="12">
-        <v>20170731</v>
+        <v>20170801</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>42946</v>
+        <v>42947</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D11" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E11,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>3</v>
+      <c r="E11" s="12">
+        <v>20170731</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>42944</v>
+        <v>42946</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D12" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E12,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E12" s="12">
-        <v>20170728</v>
+      <c r="E12" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>42940</v>
+        <v>42944</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E13,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E13" s="12">
-        <v>20170724</v>
+        <v>20170728</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>42936</v>
+        <v>42940</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D14" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E14,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E14" s="12">
-        <v>20170720</v>
+        <v>20170724</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>42935</v>
+        <v>42936</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E15,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>85</v>
+      <c r="E15" s="12">
+        <v>20170720</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1161,14 +1164,14 @@
         <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E16,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,112 +1179,112 @@
         <v>42935</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D17" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E17,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E17" s="12">
-        <v>20170719</v>
+      <c r="E17" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>42934</v>
+        <v>42935</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E18,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E18" s="12">
-        <v>20170718</v>
+        <v>20170719</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>42933</v>
+        <v>42934</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E19,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E19" s="12">
-        <v>20170717</v>
+        <v>20170718</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>42928</v>
+        <v>42933</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D20" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E20,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E20" s="12">
-        <v>20170712</v>
+        <v>20170717</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>42926</v>
+        <v>42928</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D21" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E21,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E21" s="12">
-        <v>20170710</v>
+        <v>20170712</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>42915</v>
+        <v>42926</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D22" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E22,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>38</v>
+      <c r="E22" s="12">
+        <v>20170710</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>42914</v>
+        <v>42915</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>39</v>
@@ -1294,30 +1297,30 @@
         <v>Go</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>42912</v>
+        <v>42914</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D24" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E24,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E24" s="12">
-        <v>20170626</v>
+      <c r="E24" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>42907</v>
+        <v>42912</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>30</v>
@@ -1330,12 +1333,12 @@
         <v>Go</v>
       </c>
       <c r="E25" s="12">
-        <v>20170621</v>
+        <v>20170626</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>42906</v>
+        <v>42907</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>30</v>
@@ -1348,48 +1351,48 @@
         <v>Go</v>
       </c>
       <c r="E26" s="12">
-        <v>20170620</v>
+        <v>20170621</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>42899</v>
+        <v>42906</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D27" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E27,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E27" s="12">
-        <v>20170613</v>
+        <v>20170620</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>42894</v>
+        <v>42899</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D28" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E28,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E28" s="12">
-        <v>20170608</v>
+        <v>20170613</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>42892</v>
+        <v>42894</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>30</v>
@@ -1402,12 +1405,12 @@
         <v>Go</v>
       </c>
       <c r="E29" s="12">
-        <v>20170606</v>
+        <v>20170608</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>30</v>
@@ -1420,172 +1423,172 @@
         <v>Go</v>
       </c>
       <c r="E30" s="12">
-        <v>20170605</v>
+        <v>20170606</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>42870</v>
+        <v>42891</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D31" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E31,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>0</v>
+      <c r="E31" s="12">
+        <v>20170605</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>42866</v>
+        <v>42870</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D32" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E32,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>42865</v>
+        <v>42866</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E33,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>42863</v>
+        <v>42865</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D34" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E34,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E34" s="12">
-        <v>20170508</v>
+      <c r="E34" s="12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>42859</v>
+        <v>42863</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D35" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E35,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>28</v>
+      <c r="E35" s="12">
+        <v>20170508</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>42858</v>
+        <v>42859</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D36" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E36,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>42856</v>
+        <v>42858</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D37" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E37,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>42851</v>
+        <v>42856</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D38" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E38,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>42849</v>
+        <v>42851</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D39" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E39,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>42845</v>
+        <v>42849</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>52</v>
@@ -1598,12 +1601,12 @@
         <v>Go</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>42843</v>
+        <v>42845</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>52</v>
@@ -1616,104 +1619,104 @@
         <v>Go</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>42828</v>
+        <v>42843</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D42" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E42,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>42802</v>
+        <v>42828</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E43,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>42795</v>
+        <v>42802</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D44" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E44,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <v>42787</v>
+        <v>42795</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D45" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E45,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
-        <v>42774</v>
+      <c r="A46" s="11">
+        <v>42787</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>9</v>
+      <c r="C46" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D46" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E46,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E46" s="19" t="s">
-        <v>15</v>
+      <c r="E46" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
-        <v>42772</v>
-      </c>
-      <c r="B47" s="18" t="s">
+        <v>42774</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="18" t="s">
@@ -1724,97 +1727,97 @@
         <v>Go</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
-        <v>42674</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>54</v>
+        <v>42772</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="D48" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E48,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
-        <v>42614</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>71</v>
+        <v>42674</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="D49" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E49,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E49" s="19">
-        <v>20160901</v>
+      <c r="E49" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D50" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E50,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E50" s="19" t="s">
-        <v>55</v>
+      <c r="E50" s="19">
+        <v>20160901</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
-        <v>42542</v>
+        <v>42552</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D51" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E51,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
-        <v>42506</v>
+        <v>42542</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D52" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E52,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1822,9 +1825,9 @@
         <v>42506</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="6" t="str">
@@ -1832,15 +1835,15 @@
         <v>Go</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
-        <v>42504</v>
+        <v>42506</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>33</v>
@@ -1850,15 +1853,15 @@
         <v>Go</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
-        <v>42503</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>26</v>
+        <v>42504</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>33</v>
@@ -1868,25 +1871,25 @@
         <v>Go</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
-        <v>42493</v>
+        <v>42503</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D56" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E56,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1897,86 +1900,86 @@
         <v>26</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D57" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E57,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
-        <v>42490</v>
+        <v>42493</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D58" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E58,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
-        <v>42453</v>
+        <v>42490</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D59" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E59,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E59" s="19">
-        <v>20160324</v>
+      <c r="E59" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
-        <v>42452</v>
+        <v>42453</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>69</v>
+      <c r="C60" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D60" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E60,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E60" s="19">
-        <v>20160323</v>
+        <v>20160324</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
-        <v>42390</v>
+        <v>42452</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D61" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E61,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E61" s="19">
-        <v>20160121</v>
+        <v>20160323</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1984,10 +1987,10 @@
         <v>42390</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="D62" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E62,"Go")</f>
@@ -1999,20 +2002,20 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
-        <v>42370</v>
+        <v>42390</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D63" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E63,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E63" s="19" t="s">
-        <v>45</v>
+      <c r="E63" s="19">
+        <v>20160121</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2023,55 +2026,55 @@
         <v>26</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E64,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
-        <v>42354</v>
+        <v>42370</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D65" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E65,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E65" s="19">
-        <v>20151216</v>
+      <c r="E65" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
-        <v>42229</v>
+        <v>42354</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D66" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E66,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E66" s="19">
-        <v>20150813</v>
+        <v>20151216</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
-        <v>42227</v>
+        <v>42229</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>30</v>
@@ -2084,25 +2087,25 @@
         <v>Go</v>
       </c>
       <c r="E67" s="19">
-        <v>20150811</v>
+        <v>20150813</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
-        <v>41711</v>
+        <v>42227</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D68" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E68,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E68" s="19" t="s">
-        <v>59</v>
+      <c r="E68" s="19">
+        <v>20150811</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2120,12 +2123,12 @@
         <v>Go</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>30</v>
@@ -2138,30 +2141,30 @@
         <v>Go</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
-        <v>40928</v>
+        <v>41710</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D71" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E71,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E71" s="19">
-        <v>20120120</v>
+      <c r="E71" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
-        <v>40925</v>
+        <v>40928</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>74</v>
@@ -2174,17 +2177,17 @@
         <v>Go</v>
       </c>
       <c r="E72" s="19">
-        <v>20120117</v>
+        <v>20120120</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
-        <v>40919</v>
-      </c>
-      <c r="B73" s="18" t="s">
+        <v>40925</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D73" s="6" t="str">
@@ -2192,30 +2195,48 @@
         <v>Go</v>
       </c>
       <c r="E73" s="19">
+        <v>20120117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="17">
+        <v>40919</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E74,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E74" s="19">
         <v>20120111</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
         <v>40647</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="14" t="s">
+      <c r="B75" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D74" s="15" t="str">
-        <f>HYPERLINK(Parameters!$B$1&amp;E74,"Go")</f>
-        <v>Go</v>
-      </c>
-      <c r="E74" s="16" t="s">
+      <c r="D75" s="15" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E75,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
-    <sortState ref="A2:E73">
+    <sortState ref="A2:E75">
       <sortCondition descending="1" ref="A1"/>
     </sortState>
   </autoFilter>

--- a/Photos/Photos.xlsx
+++ b/Photos/Photos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
   <si>
     <t>2017.05.15-SLa</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>Sewer Pump Station No. 53 Condition Assessment and Pump Efficiency Testing</t>
+  </si>
+  <si>
+    <t>Corrosion Engineering</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Potable Water Transmission Pipeline Failure at 20" Access Manhole (13165-D-2)</t>
   </si>
 </sst>
 </file>
@@ -868,13 +874,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,61 +912,61 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>43041</v>
+        <v>43052</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E2,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E2" s="12">
-        <v>20171102</v>
+        <v>20171113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>43021</v>
+        <v>43041</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D3" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E3,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E3" s="12">
-        <v>20171013</v>
+        <v>20171102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>43019</v>
+        <v>43021</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E4,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E4" s="12">
-        <v>20171011</v>
+        <v>20171013</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>43017</v>
+        <v>43019</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>30</v>
@@ -973,25 +979,25 @@
         <v>Go</v>
       </c>
       <c r="E5" s="12">
-        <v>20171009</v>
+        <v>20171011</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>42989</v>
+        <v>43017</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E6,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>31</v>
+      <c r="E6" s="12">
+        <v>20171009</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,40 +1005,40 @@
         <v>42989</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E7,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E7" s="12">
-        <v>20170911</v>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>42955</v>
+        <v>42989</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E8,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E8" s="12">
-        <v>20170808</v>
+        <v>20170911</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>42954</v>
+        <v>42955</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
@@ -1045,30 +1051,30 @@
         <v>Go</v>
       </c>
       <c r="E9" s="12">
-        <v>20170807</v>
+        <v>20170808</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>42948</v>
+        <v>42954</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E10,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E10" s="12">
-        <v>20170801</v>
+        <v>20170807</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>42947</v>
+        <v>42948</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>30</v>
@@ -1081,97 +1087,97 @@
         <v>Go</v>
       </c>
       <c r="E11" s="12">
-        <v>20170731</v>
+        <v>20170801</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>42946</v>
+        <v>42947</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D12" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E12,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>3</v>
+      <c r="E12" s="12">
+        <v>20170731</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>42944</v>
+        <v>42946</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D13" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E13,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E13" s="12">
-        <v>20170728</v>
+      <c r="E13" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>42940</v>
+        <v>42944</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E14,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E14" s="12">
-        <v>20170724</v>
+        <v>20170728</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>42936</v>
+        <v>42940</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E15,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E15" s="12">
-        <v>20170720</v>
+        <v>20170724</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>42935</v>
+        <v>42936</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D16" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E16,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>85</v>
+      <c r="E16" s="12">
+        <v>20170720</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1182,14 +1188,14 @@
         <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E17,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1197,112 +1203,112 @@
         <v>42935</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D18" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E18,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E18" s="12">
-        <v>20170719</v>
+      <c r="E18" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>42934</v>
+        <v>42935</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E19,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E19" s="12">
-        <v>20170718</v>
+        <v>20170719</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>42933</v>
+        <v>42934</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E20,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E20" s="12">
-        <v>20170717</v>
+        <v>20170718</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>42928</v>
+        <v>42933</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D21" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E21,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E21" s="12">
-        <v>20170712</v>
+        <v>20170717</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>42926</v>
+        <v>42928</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D22" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E22,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E22" s="12">
-        <v>20170710</v>
+        <v>20170712</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>42915</v>
+        <v>42926</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D23" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E23,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>38</v>
+      <c r="E23" s="12">
+        <v>20170710</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>42914</v>
+        <v>42915</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>39</v>
@@ -1315,30 +1321,30 @@
         <v>Go</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>42912</v>
+        <v>42914</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D25" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E25,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E25" s="12">
-        <v>20170626</v>
+      <c r="E25" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>42907</v>
+        <v>42912</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>30</v>
@@ -1351,12 +1357,12 @@
         <v>Go</v>
       </c>
       <c r="E26" s="12">
-        <v>20170621</v>
+        <v>20170626</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>42906</v>
+        <v>42907</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>30</v>
@@ -1369,48 +1375,48 @@
         <v>Go</v>
       </c>
       <c r="E27" s="12">
-        <v>20170620</v>
+        <v>20170621</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>42899</v>
+        <v>42906</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D28" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E28,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E28" s="12">
-        <v>20170613</v>
+        <v>20170620</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>42894</v>
+        <v>42899</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D29" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E29,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E29" s="12">
-        <v>20170608</v>
+        <v>20170613</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>42892</v>
+        <v>42894</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>30</v>
@@ -1423,12 +1429,12 @@
         <v>Go</v>
       </c>
       <c r="E30" s="12">
-        <v>20170606</v>
+        <v>20170608</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>30</v>
@@ -1441,172 +1447,172 @@
         <v>Go</v>
       </c>
       <c r="E31" s="12">
-        <v>20170605</v>
+        <v>20170606</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>42870</v>
+        <v>42891</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D32" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E32,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>0</v>
+      <c r="E32" s="12">
+        <v>20170605</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>42866</v>
+        <v>42870</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D33" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E33,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>42865</v>
+        <v>42866</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E34,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>42863</v>
+        <v>42865</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D35" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E35,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E35" s="12">
-        <v>20170508</v>
+      <c r="E35" s="12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>42859</v>
+        <v>42863</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D36" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E36,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>28</v>
+      <c r="E36" s="12">
+        <v>20170508</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>42858</v>
+        <v>42859</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D37" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E37,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>42856</v>
+        <v>42858</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D38" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E38,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>42851</v>
+        <v>42856</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D39" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E39,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>42849</v>
+        <v>42851</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D40" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E40,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>42845</v>
+        <v>42849</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>52</v>
@@ -1619,12 +1625,12 @@
         <v>Go</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>42843</v>
+        <v>42845</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>52</v>
@@ -1637,104 +1643,104 @@
         <v>Go</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>42828</v>
+        <v>42843</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D43" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E43,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>42802</v>
+        <v>42828</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E44,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <v>42795</v>
+        <v>42802</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D45" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E45,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
-        <v>42787</v>
+        <v>42795</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D46" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E46,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
-        <v>42774</v>
+      <c r="A47" s="11">
+        <v>42787</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>9</v>
+      <c r="C47" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D47" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E47,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E47" s="19" t="s">
-        <v>15</v>
+      <c r="E47" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
-        <v>42772</v>
-      </c>
-      <c r="B48" s="18" t="s">
+        <v>42774</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="18" t="s">
@@ -1745,97 +1751,97 @@
         <v>Go</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
-        <v>42674</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>54</v>
+        <v>42772</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="D49" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E49,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
-        <v>42614</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>71</v>
+        <v>42674</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="D50" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E50,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E50" s="19">
-        <v>20160901</v>
+      <c r="E50" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D51" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E51,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E51" s="19" t="s">
-        <v>55</v>
+      <c r="E51" s="19">
+        <v>20160901</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
-        <v>42542</v>
+        <v>42552</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D52" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E52,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
-        <v>42506</v>
+        <v>42542</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D53" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E53,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,9 +1849,9 @@
         <v>42506</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="6" t="str">
@@ -1853,15 +1859,15 @@
         <v>Go</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
-        <v>42504</v>
+        <v>42506</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>33</v>
@@ -1871,15 +1877,15 @@
         <v>Go</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
-        <v>42503</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>26</v>
+        <v>42504</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>33</v>
@@ -1889,25 +1895,25 @@
         <v>Go</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
-        <v>42493</v>
+        <v>42503</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D57" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E57,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1918,86 +1924,86 @@
         <v>26</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D58" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E58,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
-        <v>42490</v>
+        <v>42493</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D59" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E59,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
-        <v>42453</v>
+        <v>42490</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D60" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E60,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E60" s="19">
-        <v>20160324</v>
+      <c r="E60" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
-        <v>42452</v>
+        <v>42453</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>69</v>
+      <c r="C61" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D61" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E61,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E61" s="19">
-        <v>20160323</v>
+        <v>20160324</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
-        <v>42390</v>
+        <v>42452</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D62" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E62,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E62" s="19">
-        <v>20160121</v>
+        <v>20160323</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2005,10 +2011,10 @@
         <v>42390</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="D63" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E63,"Go")</f>
@@ -2020,20 +2026,20 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
-        <v>42370</v>
+        <v>42390</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D64" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E64,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E64" s="19" t="s">
-        <v>45</v>
+      <c r="E64" s="19">
+        <v>20160121</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2044,55 +2050,55 @@
         <v>26</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E65,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
-        <v>42354</v>
+        <v>42370</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D66" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E66,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E66" s="19">
-        <v>20151216</v>
+      <c r="E66" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
-        <v>42229</v>
+        <v>42354</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D67" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E67,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E67" s="19">
-        <v>20150813</v>
+        <v>20151216</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
-        <v>42227</v>
+        <v>42229</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>30</v>
@@ -2105,25 +2111,25 @@
         <v>Go</v>
       </c>
       <c r="E68" s="19">
-        <v>20150811</v>
+        <v>20150813</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
-        <v>41711</v>
+        <v>42227</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D69" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E69,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E69" s="19" t="s">
-        <v>59</v>
+      <c r="E69" s="19">
+        <v>20150811</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2141,12 +2147,12 @@
         <v>Go</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
-        <v>41710</v>
+        <v>41711</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>30</v>
@@ -2159,30 +2165,30 @@
         <v>Go</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
-        <v>40928</v>
+        <v>41710</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D72" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E72,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="E72" s="19">
-        <v>20120120</v>
+      <c r="E72" s="19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
-        <v>40925</v>
+        <v>40928</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>74</v>
@@ -2195,17 +2201,17 @@
         <v>Go</v>
       </c>
       <c r="E73" s="19">
-        <v>20120117</v>
+        <v>20120120</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
-        <v>40919</v>
-      </c>
-      <c r="B74" s="18" t="s">
+        <v>40925</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D74" s="6" t="str">
@@ -2213,30 +2219,48 @@
         <v>Go</v>
       </c>
       <c r="E74" s="19">
+        <v>20120117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="17">
+        <v>40919</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E75,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E75" s="19">
         <v>20120111</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
         <v>40647</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="14" t="s">
+      <c r="B76" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D75" s="15" t="str">
-        <f>HYPERLINK(Parameters!$B$1&amp;E75,"Go")</f>
-        <v>Go</v>
-      </c>
-      <c r="E75" s="16" t="s">
+      <c r="D76" s="15" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E76,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
-    <sortState ref="A2:E75">
+    <sortState ref="A2:E76">
       <sortCondition descending="1" ref="A1"/>
     </sortState>
   </autoFilter>

--- a/Photos/Photos.xlsx
+++ b/Photos/Photos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
   <si>
     <t>2017.05.15-SLa</t>
   </si>
@@ -313,6 +313,147 @@
   </si>
   <si>
     <t>Kearny Mesa Potable Water Transmission Pipeline Failure at 20" Access Manhole (13165-D-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Capitan Potable Water Pipeline 971+00 Before Coating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Capitan Potable Water Pipeline 971+00 After Coating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Capitan Potable Water Pipeline 971+00 During Coating </t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 976+50 After Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 976+50 Before Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 976+50 During Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 994+10 Before Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 994+10 Before and During Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 994+10 During Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 994+10 During and After Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 998+50 Before Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 998+50 During Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 1069+00 Before Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 1069+00 Before and During Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 1069+00 During and After Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 1286+90 Before and During Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 1286+90 During Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Potable Water Pipeline 1286+90 After Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 30+98 During and After Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 30+98 During Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 30+98 Before Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 72+52 Before Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 72+52 During Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 72+52 After Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 98+20 Before Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 98+20 During and After Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 160+15 Before Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 160+15 During Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 160+15 During and After Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 287+97 Before Construction</t>
+  </si>
+  <si>
+    <t>El Capitan Raw Water Pipeline 280+97 During and After Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 79+30 Before and During Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 79+30 During and After Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 90+00 During Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 90+00 During and After Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 90+00 After Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 143+67 During Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 143+67 After Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 241+68 Before and During Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 241+68 During Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 241+68 After Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 300+00 Before Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 300+00 Before and During Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 300+00 During Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 300+00 After Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 396+45 During Construction</t>
+  </si>
+  <si>
+    <t>Kearny Mesa Pipeline 396+45 After Construction</t>
   </si>
 </sst>
 </file>
@@ -874,13 +1015,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="A122" sqref="A122:E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +1030,7 @@
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="102.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2031,7 +2172,7 @@
       <c r="B64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="6" t="str">
@@ -2049,7 +2190,7 @@
       <c r="B65" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="6" t="str">
@@ -2067,7 +2208,7 @@
       <c r="B66" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D66" s="6" t="str">
@@ -2085,7 +2226,7 @@
       <c r="B67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="18" t="s">
         <v>81</v>
       </c>
       <c r="D67" s="6" t="str">
@@ -2103,7 +2244,7 @@
       <c r="B68" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D68" s="6" t="str">
@@ -2121,7 +2262,7 @@
       <c r="B69" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D69" s="6" t="str">
@@ -2139,7 +2280,7 @@
       <c r="B70" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D70" s="6" t="str">
@@ -2157,7 +2298,7 @@
       <c r="B71" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D71" s="6" t="str">
@@ -2175,7 +2316,7 @@
       <c r="B72" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D72" s="6" t="str">
@@ -2188,79 +2329,1105 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
-        <v>40928</v>
+        <v>41603</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="D73" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E73,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E73" s="19">
-        <v>20120120</v>
+        <v>20131125</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
-        <v>40925</v>
+        <v>41603</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="D74" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E74,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E74" s="19">
-        <v>20120117</v>
+        <v>20131125</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
-        <v>40919</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>74</v>
+        <v>41597</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D75" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E75,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E75" s="19">
+        <v>20131119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
+        <v>41593</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E76,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E76" s="19">
+        <v>20131109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="17">
+        <v>41593</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E77,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E77" s="19">
+        <v>20131115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="17">
+        <v>41593</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E78,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E78" s="19">
+        <v>20131115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="17">
+        <v>41593</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E79,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E79" s="19">
+        <v>20131115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="17">
+        <v>41591</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E80,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E80" s="19">
+        <v>20131113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="17">
+        <v>41590</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E81,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E81" s="19">
+        <v>20131112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="17">
+        <v>41590</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E82,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E82" s="19">
+        <v>20131112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="17">
+        <v>41586</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E83,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E83" s="19">
+        <v>20131108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="17">
+        <v>41585</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E84,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E84" s="19">
+        <v>20131107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="17">
+        <v>41585</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E85,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E85" s="19">
+        <v>20131107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="17">
+        <v>41585</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E86,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E86" s="19">
+        <v>20131107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="17">
+        <v>41585</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E87,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E87" s="19">
+        <v>20131107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="17">
+        <v>41582</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E88,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E88" s="19">
+        <v>20131104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="17">
+        <v>41579</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E89,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E89" s="19">
+        <v>20131101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="17">
+        <v>41576</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E90,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E90" s="19">
+        <v>20131029</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="17">
+        <v>41576</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E91,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E91" s="19">
+        <v>20131029</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="17">
+        <v>41572</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E92,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E92" s="19">
+        <v>20131025</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="17">
+        <v>41572</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E93,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E93" s="19">
+        <v>20131025</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="17">
+        <v>41571</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D94" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E94,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E94" s="19">
+        <v>20131024</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="17">
+        <v>41570</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E95,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E95" s="19">
+        <v>20131023</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="17">
+        <v>41569</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E96,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E96" s="19">
+        <v>20131022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="17">
+        <v>41568</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E97,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E97" s="19">
+        <v>20131021</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="17">
+        <v>41562</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E98,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E98" s="19">
+        <v>20131015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="17">
+        <v>41562</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E99,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E99" s="19">
+        <v>20131015</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="17">
+        <v>41561</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E100,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E100" s="19">
+        <v>20131014</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="17">
+        <v>41527</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E101,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E101" s="19">
+        <v>20130910</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="17">
+        <v>41527</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E102,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E102" s="19">
+        <v>20130910</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="17">
+        <v>41565</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D103" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E103,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E103" s="19">
+        <v>20131018</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="17">
+        <v>41577</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E104,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E104" s="19">
+        <v>20131030</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="17">
+        <v>41585</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E105,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E105" s="19">
+        <v>20131107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="17">
+        <v>41535</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E106,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E106" s="19">
+        <v>20130918</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="17">
+        <v>41316</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E107,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E107" s="19">
+        <v>20130211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="17">
+        <v>41563</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E108,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E108" s="19">
+        <v>20131016</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="17">
+        <v>41582</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E109,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E109" s="19">
+        <v>20131104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="17">
+        <v>41579</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E110,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E110" s="19">
+        <v>20131101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="17">
+        <v>41591</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E111,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E111" s="19">
+        <v>20131113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="17">
+        <v>41603</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D112" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E112,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E112" s="19">
+        <v>20131125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="17">
+        <v>41575</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E113,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E113" s="19">
+        <v>20131028</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="17">
+        <v>41583</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D114" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E114,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E114" s="19">
+        <v>20131105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="17">
+        <v>41590</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E115,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E115" s="19">
+        <v>20131112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="17">
+        <v>41591</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E116,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E116" s="19">
+        <v>20131113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="17">
+        <v>41603</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D117" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E117,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E117" s="19">
+        <v>20131125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="17">
+        <v>41564</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D118" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E118,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E118" s="19">
+        <v>20131017</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="17">
+        <v>41564</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E119,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E119" s="19">
+        <v>20131017</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="17">
+        <v>41584</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E120,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E120" s="19">
+        <v>20131106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="17">
+        <v>41596</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D121" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E121,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E121" s="19">
+        <v>20131118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="17">
+        <v>41603</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D122" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E122,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E122" s="19">
+        <v>20131125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="17">
+        <v>41578</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D123" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E123,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E123" s="19">
+        <v>20131031</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="17">
+        <v>41591</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D124" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E124,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E124" s="19">
+        <v>20131113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="17">
+        <v>41603</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E125,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E125" s="19">
+        <v>20131125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="17">
+        <v>41317</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E126,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E126" s="19">
+        <v>20130212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="17">
+        <v>41564</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E127,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E127" s="19">
+        <v>20131017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="17">
+        <v>41578</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D128" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E128,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E128" s="19">
+        <v>20131031</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="17">
+        <v>41583</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D129" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E129,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E129" s="19">
+        <v>20131105</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="17">
+        <v>40928</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D130" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E130,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E130" s="19">
+        <v>20120120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="17">
+        <v>40925</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D131" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E131,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E131" s="19">
+        <v>20120117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="17">
+        <v>40919</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D132" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E132,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E132" s="19">
         <v>20120111</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="13">
         <v>40647</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="14" t="s">
+      <c r="B133" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="15" t="str">
-        <f>HYPERLINK(Parameters!$B$1&amp;E76,"Go")</f>
-        <v>Go</v>
-      </c>
-      <c r="E76" s="16" t="s">
+      <c r="D133" s="15" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E133,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E133" s="16" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
-    <sortState ref="A2:E76">
+    <sortState ref="A2:E103">
       <sortCondition descending="1" ref="A1"/>
     </sortState>
   </autoFilter>

--- a/Photos/Photos.xlsx
+++ b/Photos/Photos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="146">
   <si>
     <t>2017.05.15-SLa</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Kearny Mesa Pipeline 396+45 After Construction</t>
+  </si>
+  <si>
+    <t>Coronado Pipeline Leak</t>
   </si>
 </sst>
 </file>
@@ -1015,13 +1018,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A122" sqref="A122:E122"/>
+      <selection pane="bottomRight" activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,43 +3340,43 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
-        <v>41583</v>
+        <v>36606</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D129" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E129,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E129" s="19">
-        <v>20131105</v>
+        <v>20000321</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="17">
-        <v>40928</v>
+        <v>41583</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="D130" s="6" t="str">
         <f>HYPERLINK(Parameters!$B$1&amp;E130,"Go")</f>
         <v>Go</v>
       </c>
       <c r="E130" s="19">
-        <v>20120120</v>
+        <v>20131105</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="17">
-        <v>40925</v>
+        <v>40928</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>74</v>
@@ -3386,12 +3389,12 @@
         <v>Go</v>
       </c>
       <c r="E131" s="19">
-        <v>20120117</v>
+        <v>20120120</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="17">
-        <v>40919</v>
+        <v>40925</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>74</v>
@@ -3404,24 +3407,42 @@
         <v>Go</v>
       </c>
       <c r="E132" s="19">
+        <v>20120117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="17">
+        <v>40919</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D133" s="6" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E133,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E133" s="19">
         <v>20120111</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="13">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="13">
         <v>40647</v>
       </c>
-      <c r="B133" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C133" s="14" t="s">
+      <c r="B134" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D133" s="15" t="str">
-        <f>HYPERLINK(Parameters!$B$1&amp;E133,"Go")</f>
-        <v>Go</v>
-      </c>
-      <c r="E133" s="16" t="s">
+      <c r="D134" s="15" t="str">
+        <f>HYPERLINK(Parameters!$B$1&amp;E134,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="E134" s="16" t="s">
         <v>60</v>
       </c>
     </row>
